--- a/starhealth_testNG_datasheet.xlsx
+++ b/starhealth_testNG_datasheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="starhealth" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,9 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>https://www.starhealth.in/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Social_Media_Options</t>
+  </si>
+  <si>
+    <t>Tom Rick</t>
+  </si>
+  <si>
+    <t>7654567876</t>
+  </si>
+  <si>
+    <t>testNG@test.com</t>
+  </si>
+  <si>
+    <t>twitter,facebook,linkedIn,youtube,instagram</t>
   </si>
 </sst>
 </file>
@@ -28,8 +49,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,11 +68,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -269,18 +297,40 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.5"/>
+    <col customWidth="1" min="1" max="1" width="18.63"/>
+    <col customWidth="1" min="3" max="3" width="14.13"/>
+    <col customWidth="1" min="4" max="4" width="33.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>